--- a/Mifos Automation Excels/Loan Product/774-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-Late Repayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/774-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-Late Repayment-Loanproduct.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="ProductLoanInput" sheetId="6" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
   <si>
     <t>productname</t>
   </si>
@@ -134,9 +134,6 @@
     <t>includeincustomerloancounter</t>
   </si>
   <si>
-    <t>Currency</t>
-  </si>
-  <si>
     <t>decimalplaces</t>
   </si>
   <si>
@@ -185,12 +182,6 @@
     <t>overpaymentliability</t>
   </si>
   <si>
-    <t>RBI (India) - Equal Installment - Declining Balance - Enable interest recalculation - None - Advance payment Reduce number of installments - preclosure Calculate till preclosure date - Daily - Multi disbursement - 1 - Repay on exact due date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US Dollar </t>
-  </si>
-  <si>
     <t>Per month</t>
   </si>
   <si>
@@ -228,6 +219,12 @@
   </si>
   <si>
     <t>Overpayment Liability</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>US Dollar</t>
   </si>
 </sst>
 </file>
@@ -285,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -300,9 +297,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -610,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -640,15 +634,15 @@
       <c r="A3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>56</v>
+      <c r="B3" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>41275</v>
       </c>
     </row>
@@ -662,23 +656,23 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>57</v>
+        <v>68</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="12">
+        <v>39</v>
+      </c>
+      <c r="B7" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -714,7 +708,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -833,7 +827,7 @@
       <c r="A27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="10">
         <v>41640</v>
       </c>
     </row>
@@ -855,7 +849,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="5">
         <v>10000</v>
@@ -863,7 +857,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>7</v>
@@ -871,98 +865,98 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -975,7 +969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>

--- a/Mifos Automation Excels/Loan Product/774-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-Late Repayment-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/774-RBI-EI-DB-DL-REC-NON-RNI-CTPD-DL-MD-TR-1-Late Repayment-Loanproduct.xlsx
@@ -56,9 +56,6 @@
     <t>repaymentstrategy</t>
   </si>
   <si>
-    <t>RBI (India)</t>
-  </si>
-  <si>
     <t>interestcalculationperiod</t>
   </si>
   <si>
@@ -225,6 +222,9 @@
   </si>
   <si>
     <t>US Dollar</t>
+  </si>
+  <si>
+    <t>Overdue/Due Fee/Int,Principal</t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -627,7 +627,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -635,7 +635,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
@@ -648,7 +648,7 @@
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>7</v>
@@ -656,15 +656,15 @@
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="11">
         <v>2</v>
@@ -672,7 +672,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="2">
         <v>0</v>
@@ -688,7 +688,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1">
         <v>12</v>
@@ -696,7 +696,7 @@
     </row>
     <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
@@ -708,7 +708,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -724,7 +724,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -732,7 +732,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -748,36 +748,36 @@
         <v>12</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>7</v>
@@ -785,39 +785,39 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="5">
         <v>1</v>
@@ -825,7 +825,7 @@
     </row>
     <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="10">
         <v>41640</v>
@@ -833,7 +833,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>7</v>
@@ -841,7 +841,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B29" s="5">
         <v>2</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" s="5">
         <v>10000</v>
@@ -857,7 +857,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>7</v>
@@ -865,98 +865,98 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -981,10 +981,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
